--- a/Заказы.xlsx
+++ b/Заказы.xlsx
@@ -1,187 +1,321 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="28125" windowHeight="12495" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Сборочные задания" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Сборочные задания" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
-  <si>
-    <t xml:space="preserve">Номер задания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QR-код поставки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стикер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата создания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата сканирования ШК ТТН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название товара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Размер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цвет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стоимость</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валюта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артикул Wildberries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артикул продавца</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Склад продавца</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Статус задания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куда доставить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИО покупателя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Телефон покупателя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата сканирования товара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Время с момента заказа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB-GI-47906265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:37:30 21.05.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постер asdasdasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">₽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTER-BLACKPINK-MAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">склад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новое</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 ч 44 мин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:04:07 21.05.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постер Scally Milano постер Интерьерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTER-ATOMICHEART-GLOSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 ч 17 мин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:34:32 21.05.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 ч 47 мин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постеры OG Buda картина А3 набор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTER-BLACKPINK-GLOSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:15:30 21.05.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Атомик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 ч 06 мин</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
+  <si>
+    <t>Номер задания</t>
+  </si>
+  <si>
+    <t>QR-код поставки</t>
+  </si>
+  <si>
+    <t>Стикер</t>
+  </si>
+  <si>
+    <t>Дата создания</t>
+  </si>
+  <si>
+    <t>Дата сканирования ШК ТТН</t>
+  </si>
+  <si>
+    <t>Название товара</t>
+  </si>
+  <si>
+    <t>Размер</t>
+  </si>
+  <si>
+    <t>Цвет</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Валюта</t>
+  </si>
+  <si>
+    <t>Артикул Wildberries</t>
+  </si>
+  <si>
+    <t>Артикул продавца</t>
+  </si>
+  <si>
+    <t>Склад продавца</t>
+  </si>
+  <si>
+    <t>Статус задания</t>
+  </si>
+  <si>
+    <t>Куда доставить</t>
+  </si>
+  <si>
+    <t>ФИО покупателя</t>
+  </si>
+  <si>
+    <t>Телефон покупателя</t>
+  </si>
+  <si>
+    <t>Дата сканирования товара</t>
+  </si>
+  <si>
+    <t>Время с момента заказа</t>
+  </si>
+  <si>
+    <t>WB-GI-47906265</t>
+  </si>
+  <si>
+    <t>14:37:30 21.05.2023</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Постер asdasdasd</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>₽</t>
+  </si>
+  <si>
+    <t>POSTER-BLACKPINK-MAT</t>
+  </si>
+  <si>
+    <t>склад</t>
+  </si>
+  <si>
+    <t>Новое</t>
+  </si>
+  <si>
+    <t>22 ч 44 мин</t>
+  </si>
+  <si>
+    <t>15:04:07 21.05.2023</t>
+  </si>
+  <si>
+    <t>Атомик</t>
+  </si>
+  <si>
+    <t>POSTER-ATOMICHEART-GLOSS</t>
+  </si>
+  <si>
+    <t>22 ч 17 мин</t>
+  </si>
+  <si>
+    <t>14:34:32 21.05.2023</t>
+  </si>
+  <si>
+    <t>22 ч 47 мин</t>
+  </si>
+  <si>
+    <t>Постеры OG Buda картина А3 набор</t>
+  </si>
+  <si>
+    <t>POSTER-BLACKPINK-GLOSS</t>
+  </si>
+  <si>
+    <t>14:15:30 21.05.2023</t>
+  </si>
+  <si>
+    <t>23 ч 06 мин</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0_-;\-&quot;₽&quot;* #\ ##0_-;_-&quot;₽&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;₽&quot;* #\ ##0.00_-;\-&quot;₽&quot;* #\ ##0.00_-;_-&quot;₽&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,118 +328,814 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="8:8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.71"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.152380952381" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.1428571428571" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.14285714285714" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.71428571428571" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="60" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -364,14 +1194,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:19">
+      <c r="A2" s="4">
         <v>832202843</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>11769366094</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -387,13 +1217,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="4">
         <v>344</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="4">
         <v>157773320</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -421,14 +1251,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:19">
+      <c r="A3" s="4">
         <v>832247492</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>11769424151</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -444,13 +1274,13 @@
         <v>23</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="4">
         <v>385</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="4">
         <v>160061740</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -478,14 +1308,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:19">
+      <c r="A4" s="4">
         <v>832197864</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>11769360167</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -501,13 +1331,13 @@
         <v>23</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="4">
         <v>344</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="4">
         <v>159820614</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -535,14 +1365,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:19">
+      <c r="A5" s="4">
         <v>832247491</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>11769424150</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -558,13 +1388,13 @@
         <v>23</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="4">
         <v>385</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="4">
         <v>154133473</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -592,14 +1422,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:19">
+      <c r="A6" s="4">
         <v>832166987</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>11769326203</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -609,19 +1439,19 @@
         <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="4">
         <v>390</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="4">
         <v>160817007</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -646,17 +1476,17 @@
         <v>21</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:19">
+      <c r="A7" s="4">
         <v>832166987</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>11769326203</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -666,19 +1496,19 @@
         <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="4">
         <v>390</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="4">
         <v>160817007</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -703,17 +1533,17 @@
         <v>21</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:19">
+      <c r="A8" s="4">
         <v>832166987</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>11769326203</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -723,19 +1553,19 @@
         <v>21</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="4">
         <v>390</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="4">
         <v>160817007</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -760,16 +1590,12 @@
         <v>21</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>